--- a/T1/resultados_matrizHilbert.xlsx
+++ b/T1/resultados_matrizHilbert.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,10 +394,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>norma2 com Pivo Escalado</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>determinante com Pivo Escalado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>norma2 solucao Numpy</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>determinante solucao Numpy</t>
         </is>
@@ -423,6 +433,12 @@
         <v>8.005932084973442e-16</v>
       </c>
       <c r="G2" t="n">
+        <v>0.08333333333333331</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.005932084973442e-16</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.08333333333333333</v>
       </c>
     </row>
@@ -443,9 +459,15 @@
         <v>0.0004629629629629614</v>
       </c>
       <c r="F3" t="n">
+        <v>1.762179615616027e-14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0004629629629629601</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.389554002205336e-14</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0004629629629629615</v>
       </c>
     </row>
@@ -466,9 +488,15 @@
         <v>1.653439153439301e-07</v>
       </c>
       <c r="F4" t="n">
+        <v>7.55503627649389e-13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.653439153439211e-07</v>
+      </c>
+      <c r="H4" t="n">
         <v>8.903091920362417e-13</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>1.653439153439041e-07</v>
       </c>
     </row>
@@ -489,9 +517,15 @@
         <v>3.749295132515325e-12</v>
       </c>
       <c r="F5" t="n">
+        <v>3.472698997677982e-12</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.749295132517302e-12</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.762950515941723e-12</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>3.749295132489812e-12</v>
       </c>
     </row>
@@ -512,9 +546,15 @@
         <v>5.367299886816801e-18</v>
       </c>
       <c r="F6" t="n">
+        <v>6.164843591153147e-10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.367299886906854e-18</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.415001271250743e-10</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>5.367299886656385e-18</v>
       </c>
     </row>
@@ -535,9 +575,15 @@
         <v>4.835802607688303e-25</v>
       </c>
       <c r="F7" t="n">
+        <v>2.22909750481302e-08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4.835802604969769e-25</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.335463548676909e-08</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>4.83580260882753e-25</v>
       </c>
     </row>
@@ -558,9 +604,15 @@
         <v>2.737050143275991e-33</v>
       </c>
       <c r="F8" t="n">
+        <v>4.515098814255816e-07</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.737050082963928e-33</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.200465871999675e-07</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>2.737050008673961e-33</v>
       </c>
     </row>
@@ -581,9 +633,15 @@
         <v>9.720266065325044e-43</v>
       </c>
       <c r="F9" t="n">
+        <v>1.638830755458189e-05</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.720269709185379e-43</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.956855250274709e-05</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>9.720256477718344e-43</v>
       </c>
     </row>
@@ -604,9 +662,15 @@
         <v>2.164401702522885e-53</v>
       </c>
       <c r="F10" t="n">
+        <v>0.0008408643847442321</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.164480500135833e-53</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.0007371385151292693</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>2.164214627302023e-53</v>
       </c>
     </row>
@@ -627,9 +691,15 @@
         <v>3.02666701404861e-65</v>
       </c>
       <c r="F11" t="n">
+        <v>0.007885381408007491</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.02914646115912e-65</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.0185649388475755</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>3.017065865359915e-65</v>
       </c>
     </row>
@@ -650,9 +720,15 @@
         <v>2.833255680120513e-78</v>
       </c>
       <c r="F12" t="n">
+        <v>0.8064992831151234</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.840343621874442e-78</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.207817903174401</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>2.550554736789278e-78</v>
       </c>
     </row>
@@ -673,9 +749,15 @@
         <v>4.111497796319577e-92</v>
       </c>
       <c r="F13" t="n">
+        <v>3.720674493494744</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.481433690985391e-92</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.546053142878792</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>2.451823982502789e-92</v>
       </c>
     </row>
@@ -696,9 +778,15 @@
         <v>1.675592259552414e-107</v>
       </c>
       <c r="F14" t="n">
+        <v>4.19077761732744</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-7.848709660922117e-107</v>
+      </c>
+      <c r="H14" t="n">
         <v>9.451169915090015</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>-2.387174085032839e-106</v>
       </c>
     </row>
@@ -719,9 +807,15 @@
         <v>-1.424192514627458e-120</v>
       </c>
       <c r="F15" t="n">
+        <v>7.518946966168371</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.466179031562806e-120</v>
+      </c>
+      <c r="H15" t="n">
         <v>19.98440278028821</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>-2.149189371723166e-120</v>
       </c>
     </row>
@@ -742,9 +836,15 @@
         <v>2.037126954125116e-135</v>
       </c>
       <c r="F16" t="n">
+        <v>15.13270878834948</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.908942526438028e-136</v>
+      </c>
+      <c r="H16" t="n">
         <v>30.15296244972985</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>5.926327736317881e-136</v>
       </c>
     </row>
@@ -765,9 +865,15 @@
         <v>5.114819392825206e-150</v>
       </c>
       <c r="F17" t="n">
+        <v>20.78376543998906</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.650456279315693e-150</v>
+      </c>
+      <c r="H17" t="n">
         <v>17.02873151989004</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>7.571985326424406e-150</v>
       </c>
     </row>
@@ -788,9 +894,15 @@
         <v>-8.65747809966947e-167</v>
       </c>
       <c r="F18" t="n">
+        <v>47.16631628943372</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-6.177168451667553e-166</v>
+      </c>
+      <c r="H18" t="n">
         <v>14.40044144153726</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>9.199350296480747e-165</v>
       </c>
     </row>
@@ -811,9 +923,15 @@
         <v>-3.510679013055816e-181</v>
       </c>
       <c r="F19" t="n">
+        <v>70.26737647626808</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2.098145247062137e-180</v>
+      </c>
+      <c r="H19" t="n">
         <v>24.29091920904898</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>1.125388418960617e-179</v>
       </c>
     </row>
@@ -834,9 +952,15 @@
         <v>-1.567763648552901e-195</v>
       </c>
       <c r="F20" t="n">
+        <v>95.89672531849882</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.25531151723541e-196</v>
+      </c>
+      <c r="H20" t="n">
         <v>188.6830320635295</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>-1.909904976958748e-195</v>
       </c>
     </row>
@@ -857,9 +981,15 @@
         <v>-2.218555761502702e-211</v>
       </c>
       <c r="F21" t="n">
+        <v>78.04839271226334</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.654870924695148e-211</v>
+      </c>
+      <c r="H21" t="n">
         <v>60.21329357601945</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>-7.624782066716214e-211</v>
       </c>
     </row>
@@ -880,9 +1010,15 @@
         <v>3.311563875200504e-226</v>
       </c>
       <c r="F22" t="n">
+        <v>127.2251423523697</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.210895872493561e-227</v>
+      </c>
+      <c r="H22" t="n">
         <v>23.0434735324903</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>2.676741410238444e-225</v>
       </c>
     </row>
@@ -903,9 +1039,15 @@
         <v>2.644304406205292e-241</v>
       </c>
       <c r="F23" t="n">
+        <v>147.7385934961869</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8.564653755523859e-243</v>
+      </c>
+      <c r="H23" t="n">
         <v>47.73709128562462</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>-7.523253800024984e-241</v>
       </c>
     </row>
@@ -926,9 +1068,15 @@
         <v>-1.44246202592515e-257</v>
       </c>
       <c r="F24" t="n">
+        <v>41.07635511523586</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-3.850871440456163e-258</v>
+      </c>
+      <c r="H24" t="n">
         <v>190.1491364437452</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>4.109511007105249e-257</v>
       </c>
     </row>
@@ -949,9 +1097,15 @@
         <v>1.79271975089835e-274</v>
       </c>
       <c r="F25" t="n">
+        <v>429.5510051686754</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.879824838595899e-274</v>
+      </c>
+      <c r="H25" t="n">
         <v>65.62953521239638</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>-5.90546748221608e-272</v>
       </c>
     </row>
@@ -972,9 +1126,15 @@
         <v>-4.918291384459415e-290</v>
       </c>
       <c r="F26" t="n">
+        <v>282.664970284222</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-7.884960006714056e-290</v>
+      </c>
+      <c r="H26" t="n">
         <v>107.8879034760979</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>2.249034262838377e-288</v>
       </c>
     </row>
@@ -995,9 +1155,15 @@
         <v>5.528558994911819e-305</v>
       </c>
       <c r="F27" t="n">
+        <v>38.21373976600276</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.926035799895459e-305</v>
+      </c>
+      <c r="H27" t="n">
         <v>62.64955298220562</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>-5.096297591178086e-303</v>
       </c>
     </row>
@@ -1018,9 +1184,15 @@
         <v>1.057300482100268e-321</v>
       </c>
       <c r="F28" t="n">
+        <v>3844.688054234879</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.211426697968103e-322</v>
+      </c>
+      <c r="H28" t="n">
         <v>81.96477305602119</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>6.330448298194517e-318</v>
       </c>
     </row>
@@ -1041,9 +1213,15 @@
         <v>-0</v>
       </c>
       <c r="F29" t="n">
+        <v>38.67162134496115</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>75.72796403399846</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1064,9 +1242,15 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
+        <v>116.4202705961478</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>54.1935577247918</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1087,9 +1271,15 @@
         <v>-0</v>
       </c>
       <c r="F31" t="n">
+        <v>344.2145286047922</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
         <v>441.3337371853126</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1110,9 +1300,15 @@
         <v>-0</v>
       </c>
       <c r="F32" t="n">
+        <v>193.5860636446939</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>58.70943967438704</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1133,9 +1329,15 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
+        <v>175.3919517567748</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>138.2689140392133</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1156,9 +1358,15 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>99.6219087531378</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H34" t="n">
         <v>490.3867258731341</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1179,9 +1387,15 @@
         <v>-0</v>
       </c>
       <c r="F35" t="n">
+        <v>639.6873647737589</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>188.2001694061506</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1202,9 +1416,15 @@
         <v>-0</v>
       </c>
       <c r="F36" t="n">
+        <v>1087.875351327047</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>161.1361163833502</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1225,9 +1445,15 @@
         <v>-0</v>
       </c>
       <c r="F37" t="n">
+        <v>1191.718405973501</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>65.97125440206577</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1248,9 +1474,15 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>433.4774327154931</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>475.252111997507</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1271,9 +1503,15 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>961.84199045473</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H39" t="n">
         <v>204.7923487120624</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1294,9 +1532,15 @@
         <v>-0</v>
       </c>
       <c r="F40" t="n">
+        <v>391.9891162371627</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>152.4133830380969</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1317,9 +1561,15 @@
         <v>-0</v>
       </c>
       <c r="F41" t="n">
+        <v>334.0996274655073</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H41" t="n">
         <v>789.8499023415643</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1340,9 +1590,15 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
+        <v>280.2561691593608</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H42" t="n">
         <v>2594.076900637877</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1363,9 +1619,15 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>1091.586896135896</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>648.8644761406683</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1386,9 +1648,15 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>373.3782128661445</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H44" t="n">
         <v>302.1479716219092</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1409,9 +1677,15 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
+        <v>682.2347192396744</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>501.9868292660211</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1432,9 +1706,15 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>463.795945455738</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H46" t="n">
         <v>585.7070876588022</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1455,9 +1735,15 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
+        <v>392.4233446632878</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
         <v>618.1193854275082</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1478,9 +1764,15 @@
         <v>-0</v>
       </c>
       <c r="F48" t="n">
+        <v>1592.935590015841</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H48" t="n">
         <v>132.8602201851347</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1501,9 +1793,15 @@
         <v>-0</v>
       </c>
       <c r="F49" t="n">
+        <v>1059.902684318961</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>97.51156542170881</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1524,9 +1822,15 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
+        <v>283.8258281858791</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>1244.101664503636</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1547,9 +1851,15 @@
         <v>-0</v>
       </c>
       <c r="F51" t="n">
+        <v>1608.42702690943</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H51" t="n">
         <v>309.7757207386002</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1570,9 +1880,15 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
+        <v>676.8401473408654</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>266.159384786729</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1593,9 +1909,15 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
+        <v>322.4452538036553</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
         <v>164.3241650566491</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1616,9 +1938,15 @@
         <v>-0</v>
       </c>
       <c r="F54" t="n">
+        <v>289.0414049929872</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>197.1434548058808</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1639,9 +1967,15 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
+        <v>187.0144085468708</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>346.7699040003902</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1662,9 +1996,15 @@
         <v>-0</v>
       </c>
       <c r="F56" t="n">
+        <v>14854.1107794408</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H56" t="n">
         <v>700.1636597272067</v>
       </c>
-      <c r="G56" t="n">
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,9 +2025,15 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
+        <v>193.5034019162415</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>1394.732139211219</v>
       </c>
-      <c r="G57" t="n">
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,9 +2054,15 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
+        <v>904.249532823453</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>191.4049077233477</v>
       </c>
-      <c r="G58" t="n">
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1731,9 +2083,15 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
+        <v>1032.48458551054</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H59" t="n">
         <v>288.859856281366</v>
       </c>
-      <c r="G59" t="n">
+      <c r="I59" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1754,9 +2112,15 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
+        <v>519.5404491722593</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>45155.95147163286</v>
       </c>
-      <c r="G60" t="n">
+      <c r="I60" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1777,9 +2141,15 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
+        <v>2151.359849364539</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H61" t="n">
         <v>968.6791612711872</v>
       </c>
-      <c r="G61" t="n">
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1800,9 +2170,15 @@
         <v>-0</v>
       </c>
       <c r="F62" t="n">
+        <v>2474.912695981899</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H62" t="n">
         <v>113.9606704523547</v>
       </c>
-      <c r="G62" t="n">
+      <c r="I62" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1823,9 +2199,15 @@
         <v>-0</v>
       </c>
       <c r="F63" t="n">
+        <v>671.5504004499074</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H63" t="n">
         <v>699.6980833963426</v>
       </c>
-      <c r="G63" t="n">
+      <c r="I63" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1846,9 +2228,15 @@
         <v>-0</v>
       </c>
       <c r="F64" t="n">
+        <v>5292.252982006687</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H64" t="n">
         <v>1493.696902923288</v>
       </c>
-      <c r="G64" t="n">
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1869,9 +2257,15 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
+        <v>2565.749399315785</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H65" t="n">
         <v>226.7609394425578</v>
       </c>
-      <c r="G65" t="n">
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1892,9 +2286,15 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
+        <v>4074.956646288143</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H66" t="n">
         <v>4710.577983666025</v>
       </c>
-      <c r="G66" t="n">
+      <c r="I66" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1915,9 +2315,15 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
+        <v>497.3597969572598</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H67" t="n">
         <v>186.9919887991755</v>
       </c>
-      <c r="G67" t="n">
+      <c r="I67" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1938,9 +2344,15 @@
         <v>-0</v>
       </c>
       <c r="F68" t="n">
+        <v>718.6802287638478</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H68" t="n">
         <v>1677.386823208022</v>
       </c>
-      <c r="G68" t="n">
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1961,9 +2373,15 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
+        <v>475.6485395308322</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H69" t="n">
         <v>3764.234574682744</v>
       </c>
-      <c r="G69" t="n">
+      <c r="I69" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -1984,9 +2402,15 @@
         <v>-0</v>
       </c>
       <c r="F70" t="n">
+        <v>729.0232870977209</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>166.3657858399276</v>
       </c>
-      <c r="G70" t="n">
+      <c r="I70" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2007,9 +2431,15 @@
         <v>-0</v>
       </c>
       <c r="F71" t="n">
+        <v>446.7864182098903</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>3429.076669062885</v>
       </c>
-      <c r="G71" t="n">
+      <c r="I71" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2030,9 +2460,15 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
+        <v>849.6880512273528</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H72" t="n">
         <v>449.4328223748429</v>
       </c>
-      <c r="G72" t="n">
+      <c r="I72" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2053,9 +2489,15 @@
         <v>-0</v>
       </c>
       <c r="F73" t="n">
+        <v>443.9303083118369</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H73" t="n">
         <v>23672.54647212883</v>
       </c>
-      <c r="G73" t="n">
+      <c r="I73" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2076,9 +2518,15 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
+        <v>1638.634091983411</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
         <v>486.3667908697582</v>
       </c>
-      <c r="G74" t="n">
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2099,9 +2547,15 @@
         <v>-0</v>
       </c>
       <c r="F75" t="n">
+        <v>4356.672004279955</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H75" t="n">
         <v>366.3674308012939</v>
       </c>
-      <c r="G75" t="n">
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2122,9 +2576,15 @@
         <v>-0</v>
       </c>
       <c r="F76" t="n">
+        <v>3255.89889769076</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
         <v>2440.05968045032</v>
       </c>
-      <c r="G76" t="n">
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2145,9 +2605,15 @@
         <v>-0</v>
       </c>
       <c r="F77" t="n">
+        <v>8507.932335120751</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
         <v>23582.32914717977</v>
       </c>
-      <c r="G77" t="n">
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2168,9 +2634,15 @@
         <v>-0</v>
       </c>
       <c r="F78" t="n">
+        <v>1734.117756305088</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
         <v>1963.990077868428</v>
       </c>
-      <c r="G78" t="n">
+      <c r="I78" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2191,9 +2663,15 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
+        <v>2555.718515129427</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
         <v>333.6677560964888</v>
       </c>
-      <c r="G79" t="n">
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,9 +2692,15 @@
         <v>-0</v>
       </c>
       <c r="F80" t="n">
+        <v>4310.342269092974</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
         <v>357.432992956279</v>
       </c>
-      <c r="G80" t="n">
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2237,9 +2721,15 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
+        <v>634.8311184746735</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
         <v>17319.20412125054</v>
       </c>
-      <c r="G81" t="n">
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2260,9 +2750,15 @@
         <v>-0</v>
       </c>
       <c r="F82" t="n">
+        <v>8877.716234034939</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
         <v>399.3990406381947</v>
       </c>
-      <c r="G82" t="n">
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2283,9 +2779,15 @@
         <v>-0</v>
       </c>
       <c r="F83" t="n">
+        <v>2380.405893371706</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
         <v>1811.614021972374</v>
       </c>
-      <c r="G83" t="n">
+      <c r="I83" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2306,9 +2808,15 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
+        <v>2973.584363717392</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
         <v>519.4714189809796</v>
       </c>
-      <c r="G84" t="n">
+      <c r="I84" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2329,9 +2837,15 @@
         <v>-0</v>
       </c>
       <c r="F85" t="n">
+        <v>233774.8686139171</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H85" t="n">
         <v>520.5697639920683</v>
       </c>
-      <c r="G85" t="n">
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2352,9 +2866,15 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
+        <v>585.9093699603217</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H86" t="n">
         <v>371.2274115906786</v>
       </c>
-      <c r="G86" t="n">
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2375,9 +2895,15 @@
         <v>-0</v>
       </c>
       <c r="F87" t="n">
+        <v>973.4102860152052</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H87" t="n">
         <v>557.985781243236</v>
       </c>
-      <c r="G87" t="n">
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2398,9 +2924,15 @@
         <v>-0</v>
       </c>
       <c r="F88" t="n">
+        <v>2846.366281801862</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H88" t="n">
         <v>982.1119545397819</v>
       </c>
-      <c r="G88" t="n">
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2421,9 +2953,15 @@
         <v>-0</v>
       </c>
       <c r="F89" t="n">
+        <v>955.3682364396941</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
         <v>610.723213126284</v>
       </c>
-      <c r="G89" t="n">
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2444,9 +2982,15 @@
         <v>-0</v>
       </c>
       <c r="F90" t="n">
+        <v>564.2230608398028</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H90" t="n">
         <v>216.8347839518877</v>
       </c>
-      <c r="G90" t="n">
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2467,9 +3011,15 @@
         <v>-0</v>
       </c>
       <c r="F91" t="n">
+        <v>1889.755413122998</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H91" t="n">
         <v>5096.411887789191</v>
       </c>
-      <c r="G91" t="n">
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2490,9 +3040,15 @@
         <v>-0</v>
       </c>
       <c r="F92" t="n">
+        <v>12068.17027352883</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
         <v>1751.844016964661</v>
       </c>
-      <c r="G92" t="n">
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2513,9 +3069,15 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
+        <v>15791.08277981093</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
         <v>31796.96114165351</v>
       </c>
-      <c r="G93" t="n">
+      <c r="I93" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2536,9 +3098,15 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
+        <v>3729.80782146719</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
         <v>705.2693842085407</v>
       </c>
-      <c r="G94" t="n">
+      <c r="I94" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2559,9 +3127,15 @@
         <v>-0</v>
       </c>
       <c r="F95" t="n">
+        <v>1404.363666683602</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
         <v>480.1118168100178</v>
       </c>
-      <c r="G95" t="n">
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2582,9 +3156,15 @@
         <v>-0</v>
       </c>
       <c r="F96" t="n">
+        <v>826.8984688123544</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H96" t="n">
         <v>524.6227232928386</v>
       </c>
-      <c r="G96" t="n">
+      <c r="I96" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2605,9 +3185,15 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
+        <v>627.6785235306776</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
         <v>524.4939234724611</v>
       </c>
-      <c r="G97" t="n">
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2628,9 +3214,15 @@
         <v>-0</v>
       </c>
       <c r="F98" t="n">
+        <v>727.1042498006373</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
         <v>2283.021483934499</v>
       </c>
-      <c r="G98" t="n">
+      <c r="I98" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -2651,9 +3243,15 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
+        <v>1304.943345349469</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
         <v>705.213518344294</v>
       </c>
-      <c r="G99" t="n">
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>

--- a/T1/resultados_matrizHilbert.xlsx
+++ b/T1/resultados_matrizHilbert.xlsx
@@ -882,7 +882,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>47.16631628942015</v>
+        <v>47.16631628942016</v>
       </c>
       <c r="C18" t="n">
         <v>-6.177168451581338e-166</v>
@@ -894,7 +894,7 @@
         <v>-8.65747809966947e-167</v>
       </c>
       <c r="F18" t="n">
-        <v>47.16631628943372</v>
+        <v>47.16631628943371</v>
       </c>
       <c r="G18" t="n">
         <v>-6.177168451667553e-166</v>
@@ -917,13 +917,13 @@
         <v>-2.098145247373704e-180</v>
       </c>
       <c r="D19" t="n">
-        <v>42.66104436055411</v>
+        <v>42.6610443605541</v>
       </c>
       <c r="E19" t="n">
         <v>-3.510679013055816e-181</v>
       </c>
       <c r="F19" t="n">
-        <v>70.26737647626808</v>
+        <v>70.26737647626807</v>
       </c>
       <c r="G19" t="n">
         <v>-2.098145247062137e-180</v>
@@ -981,7 +981,7 @@
         <v>-2.218555761502702e-211</v>
       </c>
       <c r="F21" t="n">
-        <v>78.04839271226334</v>
+        <v>78.04839271226332</v>
       </c>
       <c r="G21" t="n">
         <v>1.654870924695148e-211</v>
@@ -1004,7 +1004,7 @@
         <v>6.210895906597053e-227</v>
       </c>
       <c r="D22" t="n">
-        <v>91.7037361592126</v>
+        <v>91.70373615921261</v>
       </c>
       <c r="E22" t="n">
         <v>3.311563875200504e-226</v>
@@ -1149,7 +1149,7 @@
         <v>4.926040243433732e-305</v>
       </c>
       <c r="D27" t="n">
-        <v>64.13199365728815</v>
+        <v>64.13199365728813</v>
       </c>
       <c r="E27" t="n">
         <v>5.528558994911819e-305</v>
@@ -1184,7 +1184,7 @@
         <v>1.057300482100268e-321</v>
       </c>
       <c r="F28" t="n">
-        <v>3844.688054234879</v>
+        <v>3844.688054234878</v>
       </c>
       <c r="G28" t="n">
         <v>3.211426697968103e-322</v>
@@ -1271,7 +1271,7 @@
         <v>-0</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2145286047922</v>
+        <v>344.2145286047923</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>792.32749301183</v>
+        <v>792.3274930118301</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>99.6219087531378</v>
+        <v>99.62190875313779</v>
       </c>
       <c r="G34" t="n">
         <v>-0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>161.1361163833502</v>
+        <v>161.1361163833503</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>433.1656107538155</v>
+        <v>433.1656107538156</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>518.1148590738935</v>
+        <v>518.1148590738934</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>961.84199045473</v>
+        <v>961.8419904547299</v>
       </c>
       <c r="G39" t="n">
         <v>-0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="F40" t="n">
-        <v>391.9891162371627</v>
+        <v>391.9891162371628</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>334.194295885192</v>
+        <v>334.1942958851921</v>
       </c>
       <c r="C41" t="n">
         <v>-0</v>
@@ -1561,7 +1561,7 @@
         <v>-0</v>
       </c>
       <c r="F41" t="n">
-        <v>334.0996274655073</v>
+        <v>334.0996274655072</v>
       </c>
       <c r="G41" t="n">
         <v>-0</v>
@@ -1700,7 +1700,7 @@
         <v>-0</v>
       </c>
       <c r="D46" t="n">
-        <v>366.8240760473585</v>
+        <v>366.8240760473584</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>-0</v>
       </c>
       <c r="H46" t="n">
-        <v>585.7070876588022</v>
+        <v>585.707087658802</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>618.1193854275082</v>
+        <v>618.1193854275083</v>
       </c>
       <c r="I47" t="n">
         <v>-0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>97.51156542170881</v>
+        <v>97.5115654217088</v>
       </c>
       <c r="I49" t="n">
         <v>-0</v>
@@ -1810,7 +1810,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>286.0374771569312</v>
+        <v>286.0374771569311</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>283.8258281858791</v>
+        <v>283.8258281858792</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>322.4452538036553</v>
+        <v>322.4452538036554</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>288.0671508186769</v>
+        <v>288.0671508186768</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>-0</v>
       </c>
       <c r="F54" t="n">
-        <v>289.0414049929872</v>
+        <v>289.0414049929871</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1955,7 +1955,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n">
-        <v>186.3119690869017</v>
+        <v>186.3119690869016</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>193.5034019162415</v>
+        <v>193.5034019162416</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2048,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>901.1097686381711</v>
+        <v>901.109768638171</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>904.249532823453</v>
+        <v>904.2495328234529</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>-0</v>
       </c>
       <c r="D63" t="n">
-        <v>264.5317728123012</v>
+        <v>264.5317728123013</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -2309,13 +2309,13 @@
         <v>-0</v>
       </c>
       <c r="D67" t="n">
-        <v>2641.64511359942</v>
+        <v>2641.645113599419</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>497.3597969572598</v>
+        <v>497.3597969572599</v>
       </c>
       <c r="G67" t="n">
         <v>-0</v>
@@ -2344,7 +2344,7 @@
         <v>-0</v>
       </c>
       <c r="F68" t="n">
-        <v>718.6802287638478</v>
+        <v>718.6802287638479</v>
       </c>
       <c r="G68" t="n">
         <v>-0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>475.6485395308322</v>
+        <v>475.6485395308323</v>
       </c>
       <c r="G69" t="n">
         <v>-0</v>
@@ -2390,7 +2390,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>729.6176889673781</v>
+        <v>729.6176889673779</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>447.5454581573281</v>
+        <v>447.545458157328</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>3429.076669062885</v>
+        <v>3429.076669062886</v>
       </c>
       <c r="I71" t="n">
         <v>-0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>849.6880512273528</v>
+        <v>849.688051227353</v>
       </c>
       <c r="G72" t="n">
         <v>-0</v>
@@ -2547,7 +2547,7 @@
         <v>-0</v>
       </c>
       <c r="F75" t="n">
-        <v>4356.672004279955</v>
+        <v>4356.672004279956</v>
       </c>
       <c r="G75" t="n">
         <v>-0</v>
@@ -2593,7 +2593,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>3180.226116144177</v>
+        <v>3180.226116144178</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>766.4953670923554</v>
+        <v>766.4953670923553</v>
       </c>
       <c r="E78" t="n">
         <v>-0</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>333.6677560964888</v>
+        <v>333.6677560964889</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>815.431313640387</v>
+        <v>815.4313136403867</v>
       </c>
       <c r="E80" t="n">
         <v>-0</v>
       </c>
       <c r="F80" t="n">
-        <v>4310.342269092974</v>
+        <v>4310.342269092975</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2709,19 +2709,19 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>842.5214814142043</v>
+        <v>842.5214814142045</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>738.9671679245831</v>
+        <v>738.9671679245832</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>634.8311184746735</v>
+        <v>634.8311184746734</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>-0</v>
       </c>
       <c r="F82" t="n">
-        <v>8877.716234034939</v>
+        <v>8877.716234034937</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1811.614021972374</v>
+        <v>1811.614021972375</v>
       </c>
       <c r="I83" t="n">
         <v>-0</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>519.4714189809796</v>
+        <v>519.4714189809795</v>
       </c>
       <c r="I84" t="n">
         <v>-0</v>
@@ -2843,7 +2843,7 @@
         <v>-0</v>
       </c>
       <c r="H85" t="n">
-        <v>520.5697639920683</v>
+        <v>520.5697639920681</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n">
-        <v>603.7483515475573</v>
+        <v>603.7483515475571</v>
       </c>
       <c r="C86" t="n">
         <v>-0</v>
@@ -2895,7 +2895,7 @@
         <v>-0</v>
       </c>
       <c r="F87" t="n">
-        <v>973.4102860152052</v>
+        <v>973.4102860152053</v>
       </c>
       <c r="G87" t="n">
         <v>-0</v>
@@ -2930,7 +2930,7 @@
         <v>-0</v>
       </c>
       <c r="H88" t="n">
-        <v>982.1119545397819</v>
+        <v>982.1119545397817</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>-0</v>
       </c>
       <c r="F89" t="n">
-        <v>955.3682364396941</v>
+        <v>955.3682364396943</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n">
-        <v>600.088405108177</v>
+        <v>600.0884051081769</v>
       </c>
       <c r="C90" t="n">
         <v>-0</v>
@@ -2982,7 +2982,7 @@
         <v>-0</v>
       </c>
       <c r="F90" t="n">
-        <v>564.2230608398028</v>
+        <v>564.2230608398029</v>
       </c>
       <c r="G90" t="n">
         <v>-0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>31796.96114165351</v>
+        <v>31796.9611416535</v>
       </c>
       <c r="I93" t="n">
         <v>-0</v>
@@ -3086,7 +3086,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n">
-        <v>7884.550733305542</v>
+        <v>7884.550733305541</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -3179,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>6898.615024636475</v>
+        <v>6898.615024636474</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>627.6785235306776</v>
+        <v>627.6785235306777</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1304.943345349469</v>
+        <v>1304.943345349468</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
